--- a/Mentoría Big Data Bang/Aeropuertos.xlsx
+++ b/Mentoría Big Data Bang/Aeropuertos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb0db23147a26ad5/Cursos/Data scientist/Diplomatura/Mentorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC10487EA19E464E5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20252939-9672-40F0-8124-998D06500FC3}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10487EA19E464E5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBAFBA1-8AF9-41E2-8ADE-CE7DD2824BB4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="703">
   <si>
     <t>Código aeropuerto</t>
   </si>
@@ -864,9 +864,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -918,51 +915,9 @@
     <t>Berlin Tegel Airport</t>
   </si>
   <si>
-    <t>TYO</t>
-  </si>
-  <si>
-    <t>Tokyo Haneda Airport</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>UBA</t>
-  </si>
-  <si>
-    <t>Mário de Almeida Franco Airport</t>
-  </si>
-  <si>
-    <t>UIB</t>
-  </si>
-  <si>
-    <t>El Caraño Airport</t>
-  </si>
-  <si>
-    <t>URC</t>
-  </si>
-  <si>
-    <t>Ürümqi Diwopu International Airport</t>
-  </si>
-  <si>
     <t>USH</t>
   </si>
   <si>
-    <t>Malvinas Argentinas Ushuaia International Airport</t>
-  </si>
-  <si>
-    <t>USR</t>
-  </si>
-  <si>
-    <t>Ust-Nera Airport</t>
-  </si>
-  <si>
-    <t>UXO</t>
-  </si>
-  <si>
-    <t>Uruapan International Airport</t>
-  </si>
-  <si>
     <t>VCP</t>
   </si>
   <si>
@@ -978,33 +933,6 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>VLN</t>
-  </si>
-  <si>
-    <t>Arturo Michelena International Airport</t>
-  </si>
-  <si>
-    <t>VVI</t>
-  </si>
-  <si>
-    <t>Viru Viru International Airport</t>
-  </si>
-  <si>
-    <t>VVZ</t>
-  </si>
-  <si>
-    <t>Illizi Takhamalt Airport</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>WAN</t>
-  </si>
-  <si>
-    <t>Waverney Airport</t>
-  </si>
-  <si>
     <t>WAW</t>
   </si>
   <si>
@@ -1014,48 +942,15 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>WLG</t>
-  </si>
-  <si>
-    <t>Wellington International Airport</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>WUH</t>
-  </si>
-  <si>
-    <t>Wuhan Tianhe International Airport</t>
-  </si>
-  <si>
-    <t>WVB</t>
-  </si>
-  <si>
-    <t>Walvis Bay Airport</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>XAP</t>
-  </si>
-  <si>
-    <t>Serafin Enoss Bertaso Airport</t>
-  </si>
-  <si>
     <t>XRY</t>
   </si>
   <si>
     <t>Jerez Airport</t>
   </si>
   <si>
-    <t>YAI</t>
-  </si>
-  <si>
-    <t>Chillán Airport</t>
-  </si>
-  <si>
     <t>YEG</t>
   </si>
   <si>
@@ -1098,52 +993,10 @@
     <t>Croatia</t>
   </si>
   <si>
-    <t>ZAZ</t>
-  </si>
-  <si>
-    <t>Zaragoza Airport</t>
-  </si>
-  <si>
     <t>ZRH</t>
   </si>
   <si>
     <t>Zurich Airport</t>
-  </si>
-  <si>
-    <t>ZUH</t>
-  </si>
-  <si>
-    <t>Zhuhai Jinwan Airport</t>
-  </si>
-  <si>
-    <t>ZWS</t>
-  </si>
-  <si>
-    <t>Stuttgart 21 Railway Station</t>
-  </si>
-  <si>
-    <t>ZYI</t>
-  </si>
-  <si>
-    <t>Zunyi Xinzhou Airport</t>
-  </si>
-  <si>
-    <t>ZYL</t>
-  </si>
-  <si>
-    <t>Osmani International Airport</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>ZZU</t>
-  </si>
-  <si>
-    <t>Mzuzu Airport</t>
-  </si>
-  <si>
-    <t>Malawi</t>
   </si>
   <si>
     <t>Ciudad</t>
@@ -2386,7 +2239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2400,17 +2253,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2430,6 +2274,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2695,15 +2543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="52" style="9" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2718,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2746,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,7 +2610,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2774,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2785,10 +2635,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2796,13 +2646,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2810,13 +2660,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2824,13 +2674,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2844,7 +2694,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2852,13 +2702,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2872,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,13 +2730,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2900,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2914,7 +2764,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2928,7 +2778,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2942,7 +2792,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2956,7 +2806,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2970,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2984,7 +2834,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2998,7 +2848,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3012,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3026,7 +2876,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3040,7 +2890,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3054,7 +2904,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3065,10 +2915,10 @@
         <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3082,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3096,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,7 +2960,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3124,7 +2974,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3132,13 +2982,13 @@
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3152,10 +3002,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -3166,7 +3016,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3180,7 +3030,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3194,7 +3044,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3202,13 +3052,13 @@
         <v>80</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3216,13 +3066,13 @@
         <v>81</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3236,7 +3086,7 @@
         <v>250</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3264,7 +3114,7 @@
         <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3278,7 +3128,7 @@
         <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3292,7 +3142,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,13 +3150,13 @@
         <v>95</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3320,7 +3170,7 @@
         <v>89</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3328,13 +3178,13 @@
         <v>99</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3342,13 +3192,13 @@
         <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3356,13 +3206,13 @@
         <v>102</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3376,7 +3226,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,13 +3248,13 @@
         <v>107</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3418,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3426,13 +3276,13 @@
         <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3446,7 +3296,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3460,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3474,7 +3324,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3488,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3496,13 +3346,13 @@
         <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3516,7 +3366,7 @@
         <v>42</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3530,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3538,13 +3388,13 @@
         <v>124</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3558,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3572,7 +3422,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3580,13 +3430,13 @@
         <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3594,13 +3444,13 @@
         <v>131</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3464,7 @@
         <v>42</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3628,7 +3478,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3642,7 +3492,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3656,7 +3506,7 @@
         <v>42</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3670,7 +3520,7 @@
         <v>142</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3534,7 @@
         <v>101</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3698,7 +3548,7 @@
         <v>42</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3712,7 +3562,7 @@
         <v>149</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3726,7 +3576,7 @@
         <v>37</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3740,7 +3590,7 @@
         <v>37</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3754,7 +3604,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3768,7 +3618,7 @@
         <v>37</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3782,7 +3632,7 @@
         <v>37</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,7 +3646,7 @@
         <v>29</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3810,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,7 +3674,7 @@
         <v>42</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3838,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3852,7 +3702,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3866,7 +3716,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3874,13 +3724,13 @@
         <v>172</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3894,7 +3744,7 @@
         <v>37</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3908,7 +3758,7 @@
         <v>37</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3922,7 +3772,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3930,13 +3780,13 @@
         <v>179</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3950,7 +3800,7 @@
         <v>182</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3964,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3978,7 +3828,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3992,7 +3842,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4006,7 +3856,7 @@
         <v>191</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4020,7 +3870,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4034,7 +3884,7 @@
         <v>29</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4048,7 +3898,7 @@
         <v>49</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4062,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4076,7 +3926,7 @@
         <v>202</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4090,7 +3940,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4104,7 +3954,7 @@
         <v>29</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4118,7 +3968,7 @@
         <v>42</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4132,7 +3982,7 @@
         <v>37</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4146,7 +3996,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4160,7 +4010,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4174,7 +4024,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4182,13 +4032,13 @@
         <v>217</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4202,7 +4052,7 @@
         <v>37</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4216,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4230,7 +4080,7 @@
         <v>182</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4238,13 +4088,13 @@
         <v>224</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4258,7 +4108,7 @@
         <v>227</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4272,7 +4122,7 @@
         <v>96</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4286,7 +4136,7 @@
         <v>232</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4300,7 +4150,7 @@
         <v>42</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4314,7 +4164,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4328,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4342,105 +4192,105 @@
         <v>8</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4448,153 +4298,153 @@
         <v>242</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4608,21 +4458,21 @@
         <v>42</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4636,49 +4486,49 @@
         <v>247</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4692,7 +4542,7 @@
         <v>250</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4706,35 +4556,35 @@
         <v>202</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4748,35 +4598,35 @@
         <v>42</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4790,49 +4640,49 @@
         <v>8</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4840,27 +4690,27 @@
         <v>257</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>610</v>
+        <v>561</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4874,35 +4724,35 @@
         <v>8</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4916,7 +4766,7 @@
         <v>263</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4930,35 +4780,35 @@
         <v>37</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>628</v>
+        <v>579</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>629</v>
+        <v>580</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>630</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4972,21 +4822,21 @@
         <v>13</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5000,49 +4850,49 @@
         <v>37</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5056,7 +4906,7 @@
         <v>82</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5070,91 +4920,91 @@
         <v>275</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5168,955 +5018,581 @@
         <v>278</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>669</v>
+        <v>620</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>670</v>
+        <v>621</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>278</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>712</v>
+        <v>663</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>713</v>
+        <v>664</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>723</v>
+        <v>674</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>726</v>
+        <v>677</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>727</v>
+        <v>678</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>740</v>
+        <v>691</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>744</v>
+        <v>695</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>745</v>
+        <v>696</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>746</v>
+        <v>697</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>747</v>
+        <v>698</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>748</v>
+        <v>699</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>372</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
